--- a/1 четверть_5_Знакомство с базами данных.xlsx
+++ b/1 четверть_5_Знакомство с базами данных.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework_hard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926AF41-39E4-4412-937D-715FDE54B61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E266EF-09FE-432A-953C-FAB2CB20FD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2881,9 +2881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2518189</xdr:colOff>
+      <xdr:colOff>3137621</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>718154</xdr:rowOff>
+      <xdr:rowOff>854364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2906,8 +2906,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971637" y="32662091"/>
-          <a:ext cx="2425825" cy="533427"/>
+          <a:off x="3971637" y="35063545"/>
+          <a:ext cx="3045257" cy="669637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3187,7 +3187,7 @@
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
